--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Adam12</t>
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H2">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I2">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J2">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N2">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O2">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P2">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q2">
-        <v>7.202805172924446</v>
+        <v>6.17582885922489</v>
       </c>
       <c r="R2">
-        <v>64.82524655632001</v>
+        <v>55.582459733024</v>
       </c>
       <c r="S2">
-        <v>0.0008649356834010452</v>
+        <v>0.0009644947711164376</v>
       </c>
       <c r="T2">
-        <v>0.001016848374959122</v>
+        <v>0.00105620892069554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H3">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I3">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J3">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P3">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q3">
-        <v>61.44169451142402</v>
+        <v>80.95069100714801</v>
       </c>
       <c r="R3">
-        <v>552.9752506028161</v>
+        <v>728.556219064332</v>
       </c>
       <c r="S3">
-        <v>0.007378113492688003</v>
+        <v>0.01264227360802479</v>
       </c>
       <c r="T3">
-        <v>0.00867396600612339</v>
+        <v>0.01384443188552814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H4">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I4">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J4">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N4">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O4">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P4">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q4">
-        <v>73.83790121041602</v>
+        <v>78.77764891681421</v>
       </c>
       <c r="R4">
-        <v>664.5411108937442</v>
+        <v>708.9988402513279</v>
       </c>
       <c r="S4">
-        <v>0.008866689298275146</v>
+        <v>0.01230290414340431</v>
       </c>
       <c r="T4">
-        <v>0.01042398732905327</v>
+        <v>0.01347279165825256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H5">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I5">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J5">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N5">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O5">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P5">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q5">
-        <v>154.335165216336</v>
+        <v>86.0598983564315</v>
       </c>
       <c r="R5">
-        <v>926.0109912980163</v>
+        <v>516.359390138589</v>
       </c>
       <c r="S5">
-        <v>0.01853305599615517</v>
+        <v>0.01344019140744258</v>
       </c>
       <c r="T5">
-        <v>0.01452540208817568</v>
+        <v>0.009812149314170236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H6">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I6">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J6">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N6">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O6">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P6">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q6">
-        <v>74.5313940469689</v>
+        <v>120.9203333833017</v>
       </c>
       <c r="R6">
-        <v>670.7825464227201</v>
+        <v>1088.283000449715</v>
       </c>
       <c r="S6">
-        <v>0.008949966116975221</v>
+        <v>0.01888443347902105</v>
       </c>
       <c r="T6">
-        <v>0.01052189044415422</v>
+        <v>0.02068016095072805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>209.86536</v>
       </c>
       <c r="I7">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J7">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N7">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O7">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P7">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q7">
-        <v>148.1717064882667</v>
+        <v>96.42762978389335</v>
       </c>
       <c r="R7">
-        <v>1333.5453583944</v>
+        <v>867.8486680550401</v>
       </c>
       <c r="S7">
-        <v>0.01779292832935166</v>
+        <v>0.01505934617647249</v>
       </c>
       <c r="T7">
-        <v>0.02091798338845538</v>
+        <v>0.01649134474106164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>209.86536</v>
       </c>
       <c r="I8">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J8">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P8">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q8">
         <v>1263.94099336608</v>
@@ -948,10 +948,10 @@
         <v>11375.46894029472</v>
       </c>
       <c r="S8">
-        <v>0.1517780421140865</v>
+        <v>0.1973928531520709</v>
       </c>
       <c r="T8">
-        <v>0.1784355281439179</v>
+        <v>0.2161630095095586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>209.86536</v>
       </c>
       <c r="I9">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J9">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N9">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O9">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P9">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q9">
-        <v>1518.94818243672</v>
+        <v>1230.011734157653</v>
       </c>
       <c r="R9">
-        <v>13670.53364193048</v>
+        <v>11070.10560741888</v>
       </c>
       <c r="S9">
-        <v>0.1824001139396723</v>
+        <v>0.1920940351568959</v>
       </c>
       <c r="T9">
-        <v>0.2144358973867379</v>
+        <v>0.2103603250334493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>209.86536</v>
       </c>
       <c r="I10">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J10">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N10">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O10">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P10">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q10">
-        <v>3174.888706863121</v>
+        <v>1343.71469921124</v>
       </c>
       <c r="R10">
-        <v>19049.33224117872</v>
+        <v>8062.288195267441</v>
       </c>
       <c r="S10">
-        <v>0.3812507026728265</v>
+        <v>0.209851314018471</v>
       </c>
       <c r="T10">
-        <v>0.2988076954966943</v>
+        <v>0.1532040998898147</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>209.86536</v>
       </c>
       <c r="I11">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J11">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N11">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O11">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P11">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q11">
-        <v>1533.214293286934</v>
+        <v>1888.0155856996</v>
       </c>
       <c r="R11">
-        <v>13798.9286395824</v>
+        <v>16992.1402712964</v>
       </c>
       <c r="S11">
-        <v>0.1841132337647216</v>
+        <v>0.2948561564288796</v>
       </c>
       <c r="T11">
-        <v>0.2164499004434298</v>
+        <v>0.3228941328335984</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H12">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I12">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J12">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N12">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O12">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P12">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q12">
-        <v>0.04084467008777778</v>
+        <v>0.02785054356622222</v>
       </c>
       <c r="R12">
-        <v>0.36760203079</v>
+        <v>0.250654892096</v>
       </c>
       <c r="S12">
-        <v>4.904757492047867E-06</v>
+        <v>4.349489640123094E-06</v>
       </c>
       <c r="T12">
-        <v>5.766202945572018E-06</v>
+        <v>4.763084151356423E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H13">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I13">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J13">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P13">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q13">
-        <v>0.3484150524280001</v>
+        <v>0.365055573592</v>
       </c>
       <c r="R13">
-        <v>3.135735471852</v>
+        <v>3.285500162328</v>
       </c>
       <c r="S13">
-        <v>4.183878422976532E-05</v>
+        <v>5.701164975944399E-05</v>
       </c>
       <c r="T13">
-        <v>4.918712520567375E-05</v>
+        <v>6.243290773862053E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H14">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I14">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J14">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N14">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O14">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P14">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q14">
-        <v>0.4187097446770001</v>
+        <v>0.3552560139235555</v>
       </c>
       <c r="R14">
-        <v>3.768387702093</v>
+        <v>3.197304125312</v>
       </c>
       <c r="S14">
-        <v>5.027999376135245E-05</v>
+        <v>5.548122780720023E-05</v>
       </c>
       <c r="T14">
-        <v>5.911090377049445E-05</v>
+        <v>6.075695742059337E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H15">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I15">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J15">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N15">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O15">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P15">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q15">
-        <v>0.8751824816670002</v>
+        <v>0.388096076351</v>
       </c>
       <c r="R15">
-        <v>5.251094890002</v>
+        <v>2.328576458106</v>
       </c>
       <c r="S15">
-        <v>0.0001050946873763526</v>
+        <v>6.06099431936533E-05</v>
       </c>
       <c r="T15">
-        <v>8.236863859847696E-05</v>
+        <v>4.424890944709137E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H16">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I16">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J16">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N16">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O16">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P16">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q16">
-        <v>0.4226423078155556</v>
+        <v>0.5453028394566667</v>
       </c>
       <c r="R16">
-        <v>3.80378077034</v>
+        <v>4.90772555511</v>
       </c>
       <c r="S16">
-        <v>5.075222841217298E-05</v>
+        <v>8.516131993283743E-05</v>
       </c>
       <c r="T16">
-        <v>5.966607919740951E-05</v>
+        <v>9.325934002436483E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H17">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I17">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J17">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N17">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O17">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P17">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q17">
-        <v>6.108735876288333</v>
+        <v>3.412799607877333</v>
       </c>
       <c r="R17">
-        <v>36.65241525772999</v>
+        <v>20.476797647264</v>
       </c>
       <c r="S17">
-        <v>0.0007335563732496026</v>
+        <v>0.0005329855233519278</v>
       </c>
       <c r="T17">
-        <v>0.0005749295355285638</v>
+        <v>0.0003891115370964351</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H18">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I18">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J18">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P18">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q18">
-        <v>52.109015106054</v>
+        <v>44.73383133244201</v>
       </c>
       <c r="R18">
-        <v>312.654090636324</v>
+        <v>268.402987994652</v>
       </c>
       <c r="S18">
-        <v>0.006257415758173387</v>
+        <v>0.006986195277691042</v>
       </c>
       <c r="T18">
-        <v>0.004904289931418288</v>
+        <v>0.005100343374923646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H19">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I19">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J19">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N19">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O19">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P19">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q19">
-        <v>62.6223013568985</v>
+        <v>43.53299540210133</v>
       </c>
       <c r="R19">
-        <v>375.733808141391</v>
+        <v>261.197972412608</v>
       </c>
       <c r="S19">
-        <v>0.007519884506092189</v>
+        <v>0.006798657701410521</v>
       </c>
       <c r="T19">
-        <v>0.005893757949595142</v>
+        <v>0.004963429647678434</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H20">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I20">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J20">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N20">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O20">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P20">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q20">
-        <v>130.8924423325935</v>
+        <v>47.55720957618225</v>
       </c>
       <c r="R20">
-        <v>523.569769330374</v>
+        <v>190.228838304729</v>
       </c>
       <c r="S20">
-        <v>0.01571797950145128</v>
+        <v>0.007427129379824363</v>
       </c>
       <c r="T20">
-        <v>0.008212711827617554</v>
+        <v>0.003614834553132017</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H21">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I21">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J21">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N21">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O21">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P21">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q21">
-        <v>63.21045617559666</v>
+        <v>66.82129245510249</v>
       </c>
       <c r="R21">
-        <v>379.2627370535799</v>
+        <v>400.927754730615</v>
       </c>
       <c r="S21">
-        <v>0.007590512001608601</v>
+        <v>0.01043564979556079</v>
       </c>
       <c r="T21">
-        <v>0.005949112704421844</v>
+        <v>0.007618652955175183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.015872</v>
+      </c>
+      <c r="I22">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J22">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.378421333333333</v>
+      </c>
+      <c r="N22">
+        <v>4.135264</v>
+      </c>
+      <c r="O22">
+        <v>0.01656231489052403</v>
+      </c>
+      <c r="P22">
+        <v>0.01794267551419991</v>
+      </c>
+      <c r="Q22">
+        <v>0.007292767800888889</v>
+      </c>
+      <c r="R22">
+        <v>0.06563491020800001</v>
+      </c>
+      <c r="S22">
+        <v>1.138929943050017E-06</v>
+      </c>
+      <c r="T22">
+        <v>1.247231194943893E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.015872</v>
+      </c>
+      <c r="I23">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J23">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>18.067884</v>
+      </c>
+      <c r="N23">
+        <v>54.20365200000001</v>
+      </c>
+      <c r="O23">
+        <v>0.2170932623988173</v>
+      </c>
+      <c r="P23">
+        <v>0.2351865659654651</v>
+      </c>
+      <c r="Q23">
+        <v>0.09559115161600001</v>
+      </c>
+      <c r="R23">
+        <v>0.8603203645440001</v>
+      </c>
+      <c r="S23">
+        <v>1.492871127102476E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.634828771616104E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.015872</v>
+      </c>
+      <c r="I24">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J24">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>17.58286933333333</v>
+      </c>
+      <c r="N24">
+        <v>52.748608</v>
+      </c>
+      <c r="O24">
+        <v>0.2112656061941426</v>
+      </c>
+      <c r="P24">
+        <v>0.22887321273073</v>
+      </c>
+      <c r="Q24">
+        <v>0.0930251006862222</v>
+      </c>
+      <c r="R24">
+        <v>0.837225906176</v>
+      </c>
+      <c r="S24">
+        <v>1.452796462460623E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.590943392911964E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.015872</v>
+      </c>
+      <c r="I25">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J25">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.2082395</v>
+      </c>
+      <c r="N25">
+        <v>38.416479</v>
+      </c>
+      <c r="O25">
+        <v>0.2307951156866419</v>
+      </c>
+      <c r="P25">
+        <v>0.1666869194070983</v>
+      </c>
+      <c r="Q25">
+        <v>0.101624392448</v>
+      </c>
+      <c r="R25">
+        <v>0.6097463546880001</v>
+      </c>
+      <c r="S25">
+        <v>1.587093771025944E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.158674053426988E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.015872</v>
+      </c>
+      <c r="I26">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J26">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.988955</v>
+      </c>
+      <c r="N26">
+        <v>80.966865</v>
+      </c>
+      <c r="O26">
+        <v>0.3242837008298742</v>
+      </c>
+      <c r="P26">
+        <v>0.3513106263825066</v>
+      </c>
+      <c r="Q26">
+        <v>0.1427895645866667</v>
+      </c>
+      <c r="R26">
+        <v>1.28510608128</v>
+      </c>
+      <c r="S26">
+        <v>2.229980647992206E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.44203029806104E-05</v>
       </c>
     </row>
   </sheetData>
